--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H2">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I2">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J2">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.12819809555384</v>
+        <v>3.76917</v>
       </c>
       <c r="N2">
-        <v>2.12819809555384</v>
+        <v>11.30751</v>
       </c>
       <c r="O2">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="P2">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="Q2">
-        <v>10.68007858538197</v>
+        <v>4.377354476470001</v>
       </c>
       <c r="R2">
-        <v>10.68007858538197</v>
+        <v>39.39619028823</v>
       </c>
       <c r="S2">
-        <v>0.01067662236159741</v>
+        <v>0.003414323801804983</v>
       </c>
       <c r="T2">
-        <v>0.01067662236159741</v>
+        <v>0.003414323801804984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H3">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I3">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J3">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.29144960819239</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
-        <v>82.29144960819239</v>
+        <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094569</v>
       </c>
       <c r="P3">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094571</v>
       </c>
       <c r="Q3">
-        <v>412.9686754990619</v>
+        <v>95.78948103245889</v>
       </c>
       <c r="R3">
-        <v>412.9686754990619</v>
+        <v>862.10532929213</v>
       </c>
       <c r="S3">
-        <v>0.4128350330218902</v>
+        <v>0.07471551751399789</v>
       </c>
       <c r="T3">
-        <v>0.4128350330218902</v>
+        <v>0.07471551751399791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H4">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I4">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J4">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.467485982705433</v>
+        <v>0.5716056666666667</v>
       </c>
       <c r="N4">
-        <v>0.467485982705433</v>
+        <v>1.714817</v>
       </c>
       <c r="O4">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860061</v>
       </c>
       <c r="P4">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860062</v>
       </c>
       <c r="Q4">
-        <v>2.346016117244586</v>
+        <v>0.6638386232934445</v>
       </c>
       <c r="R4">
-        <v>2.346016117244586</v>
+        <v>5.974547609641</v>
       </c>
       <c r="S4">
-        <v>0.00234525691340179</v>
+        <v>0.0005177922017172494</v>
       </c>
       <c r="T4">
-        <v>0.00234525691340179</v>
+        <v>0.0005177922017172496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H5">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I5">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J5">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.4013867063138</v>
+        <v>53.47143866666666</v>
       </c>
       <c r="N5">
-        <v>50.4013867063138</v>
+        <v>160.414316</v>
       </c>
       <c r="O5">
-        <v>0.3725474013611063</v>
+        <v>0.3811416689464024</v>
       </c>
       <c r="P5">
-        <v>0.3725474013611063</v>
+        <v>0.3811416689464024</v>
       </c>
       <c r="Q5">
-        <v>252.9326437986373</v>
+        <v>62.09946524322978</v>
       </c>
       <c r="R5">
-        <v>252.9326437986373</v>
+        <v>558.895187189068</v>
       </c>
       <c r="S5">
-        <v>0.2528507912343139</v>
+        <v>0.04843740286491596</v>
       </c>
       <c r="T5">
-        <v>0.2528507912343139</v>
+        <v>0.04843740286491597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.37563618779034</v>
+        <v>5.168173666666667</v>
       </c>
       <c r="H6">
-        <v>2.37563618779034</v>
+        <v>15.504521</v>
       </c>
       <c r="I6">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="J6">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.12819809555384</v>
+        <v>3.76917</v>
       </c>
       <c r="N6">
-        <v>2.12819809555384</v>
+        <v>11.30751</v>
       </c>
       <c r="O6">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="P6">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="Q6">
-        <v>5.055824410584187</v>
+        <v>19.47972513919</v>
       </c>
       <c r="R6">
-        <v>5.055824410584187</v>
+        <v>175.31752625271</v>
       </c>
       <c r="S6">
-        <v>0.005054188274628936</v>
+        <v>0.01519412913733013</v>
       </c>
       <c r="T6">
-        <v>0.005054188274628936</v>
+        <v>0.01519412913733013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.37563618779034</v>
+        <v>5.168173666666667</v>
       </c>
       <c r="H7">
-        <v>2.37563618779034</v>
+        <v>15.504521</v>
       </c>
       <c r="I7">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="J7">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.29144960819239</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N7">
-        <v>82.29144960819239</v>
+        <v>247.44181</v>
       </c>
       <c r="O7">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094569</v>
       </c>
       <c r="P7">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094571</v>
       </c>
       <c r="Q7">
-        <v>195.494545634947</v>
+        <v>426.2740821581123</v>
       </c>
       <c r="R7">
-        <v>195.494545634947</v>
+        <v>3836.46673942301</v>
       </c>
       <c r="S7">
-        <v>0.1954312808478039</v>
+        <v>0.3324925483253789</v>
       </c>
       <c r="T7">
-        <v>0.1954312808478039</v>
+        <v>0.3324925483253791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.37563618779034</v>
+        <v>5.168173666666667</v>
       </c>
       <c r="H8">
-        <v>2.37563618779034</v>
+        <v>15.504521</v>
       </c>
       <c r="I8">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="J8">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.467485982705433</v>
+        <v>0.5716056666666667</v>
       </c>
       <c r="N8">
-        <v>0.467485982705433</v>
+        <v>1.714817</v>
       </c>
       <c r="O8">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860061</v>
       </c>
       <c r="P8">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860062</v>
       </c>
       <c r="Q8">
-        <v>1.110576617799756</v>
+        <v>2.954157354184111</v>
       </c>
       <c r="R8">
-        <v>1.110576617799756</v>
+        <v>26.587416187657</v>
       </c>
       <c r="S8">
-        <v>0.001110217219571518</v>
+        <v>0.002304234172235005</v>
       </c>
       <c r="T8">
-        <v>0.001110217219571518</v>
+        <v>0.002304234172235005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.168173666666667</v>
+      </c>
+      <c r="H9">
+        <v>15.504521</v>
+      </c>
+      <c r="I9">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="J9">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>53.47143866666666</v>
+      </c>
+      <c r="N9">
+        <v>160.414316</v>
+      </c>
+      <c r="O9">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="P9">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="Q9">
+        <v>276.3496812358484</v>
+      </c>
+      <c r="R9">
+        <v>2487.147131122636</v>
+      </c>
+      <c r="S9">
+        <v>0.2155519502331179</v>
+      </c>
+      <c r="T9">
+        <v>0.2155519502331179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H10">
+        <v>8.426695</v>
+      </c>
+      <c r="I10">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J10">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.76917</v>
+      </c>
+      <c r="N10">
+        <v>11.30751</v>
+      </c>
+      <c r="O10">
+        <v>0.02686645020528053</v>
+      </c>
+      <c r="P10">
+        <v>0.02686645020528053</v>
+      </c>
+      <c r="Q10">
+        <v>10.58721533105</v>
+      </c>
+      <c r="R10">
+        <v>95.28493797945001</v>
+      </c>
+      <c r="S10">
+        <v>0.008257997266145413</v>
+      </c>
+      <c r="T10">
+        <v>0.008257997266145413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.37563618779034</v>
-      </c>
-      <c r="H9">
-        <v>2.37563618779034</v>
-      </c>
-      <c r="I9">
-        <v>0.3212922964687967</v>
-      </c>
-      <c r="J9">
-        <v>0.3212922964687967</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>50.4013867063138</v>
-      </c>
-      <c r="N9">
-        <v>50.4013867063138</v>
-      </c>
-      <c r="O9">
-        <v>0.3725474013611063</v>
-      </c>
-      <c r="P9">
-        <v>0.3725474013611063</v>
-      </c>
-      <c r="Q9">
-        <v>119.735358174334</v>
-      </c>
-      <c r="R9">
-        <v>119.735358174334</v>
-      </c>
-      <c r="S9">
-        <v>0.1196966101267923</v>
-      </c>
-      <c r="T9">
-        <v>0.1196966101267923</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H11">
+        <v>8.426695</v>
+      </c>
+      <c r="I11">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J11">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>82.48060333333333</v>
+      </c>
+      <c r="N11">
+        <v>247.44181</v>
+      </c>
+      <c r="O11">
+        <v>0.5879175050094569</v>
+      </c>
+      <c r="P11">
+        <v>0.5879175050094571</v>
+      </c>
+      <c r="Q11">
+        <v>231.6796292353278</v>
+      </c>
+      <c r="R11">
+        <v>2085.11666311795</v>
+      </c>
+      <c r="S11">
+        <v>0.1807094391700801</v>
+      </c>
+      <c r="T11">
+        <v>0.1807094391700801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H12">
+        <v>8.426695</v>
+      </c>
+      <c r="I12">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J12">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5716056666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.714817</v>
+      </c>
+      <c r="O12">
+        <v>0.004074375838860061</v>
+      </c>
+      <c r="P12">
+        <v>0.004074375838860062</v>
+      </c>
+      <c r="Q12">
+        <v>1.605582204423889</v>
+      </c>
+      <c r="R12">
+        <v>14.450239839815</v>
+      </c>
+      <c r="S12">
+        <v>0.001252349464907807</v>
+      </c>
+      <c r="T12">
+        <v>0.001252349464907807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H13">
+        <v>8.426695</v>
+      </c>
+      <c r="I13">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J13">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>53.47143866666666</v>
+      </c>
+      <c r="N13">
+        <v>160.414316</v>
+      </c>
+      <c r="O13">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="P13">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="Q13">
+        <v>150.1958349517355</v>
+      </c>
+      <c r="R13">
+        <v>1351.76251456562</v>
+      </c>
+      <c r="S13">
+        <v>0.1171523158483686</v>
+      </c>
+      <c r="T13">
+        <v>0.1171523158483686</v>
       </c>
     </row>
   </sheetData>
